--- a/task4/yuki&LWB output.xlsx
+++ b/task4/yuki&LWB output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmz19\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmz19\Desktop\Mental Health\task\task4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,9 +114,6 @@
     <t>1 抑郁情绪</t>
   </si>
   <si>
-    <t>1，你感到情绪沮丧，郁闷吗？</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 I feel tense or 'wound up': </t>
   </si>
   <si>
@@ -501,10 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>偏执/妄想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强迫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,10 +511,6 @@
   </si>
   <si>
     <t>自卑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情绪/苦闷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -674,9 +663,6 @@
     <t>无法感受快乐</t>
   </si>
   <si>
-    <t>畏难（难以开始工作）</t>
-  </si>
-  <si>
     <t>抑郁（忧郁沮丧）</t>
   </si>
   <si>
@@ -699,179 +685,200 @@
   </si>
   <si>
     <t>早醒</t>
+  </si>
+  <si>
+    <t>迟缓</t>
+  </si>
+  <si>
+    <t>焦虑不安（激越）_agitation</t>
+  </si>
+  <si>
+    <t>焦虑（精神性）</t>
+  </si>
+  <si>
+    <t>焦虑（躯体性）</t>
+  </si>
+  <si>
+    <t>肠胃相关</t>
+  </si>
+  <si>
+    <t>性症状（无兴趣）</t>
+  </si>
+  <si>
+    <t>疑病</t>
+  </si>
+  <si>
+    <t>体重变化</t>
+  </si>
+  <si>
+    <t>丧失自知力</t>
+  </si>
+  <si>
+    <t>昼夜情绪变化</t>
+  </si>
+  <si>
+    <t>人格解体或现实解体</t>
+  </si>
+  <si>
+    <t>偏执症状</t>
+  </si>
+  <si>
+    <t>强迫</t>
+  </si>
+  <si>
+    <t>能力减退感</t>
+  </si>
+  <si>
+    <t>绝望感</t>
+  </si>
+  <si>
+    <t>自卑感</t>
+  </si>
+  <si>
+    <t>DSI_symp</t>
+  </si>
+  <si>
+    <t>失眠
+早醒</t>
+  </si>
+  <si>
+    <t>食欲变化</t>
+  </si>
+  <si>
+    <t>无兴趣</t>
+  </si>
+  <si>
+    <t>精疲力竭</t>
+  </si>
+  <si>
+    <t>坐立不安</t>
+  </si>
+  <si>
+    <t>头脑清晰</t>
+  </si>
+  <si>
+    <t>空虚感</t>
+  </si>
+  <si>
+    <t>犹豫</t>
+  </si>
+  <si>
+    <t>愤怒</t>
+  </si>
+  <si>
+    <t>喜欢曾经喜欢的事</t>
+  </si>
+  <si>
+    <t>HADS_symp</t>
+  </si>
+  <si>
+    <t>紧张</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>开心（不开心）</t>
+  </si>
+  <si>
+    <t>坐立不安（心安理得）</t>
+  </si>
+  <si>
+    <t>失去兴趣（对自己外表）</t>
+  </si>
+  <si>
+    <t>感到被push</t>
+  </si>
+  <si>
+    <t>对未来充满（失去）希望</t>
+  </si>
+  <si>
+    <t>恐慌（panic）</t>
+  </si>
+  <si>
+    <t>可以享受文学作品</t>
+  </si>
+  <si>
+    <t>BSRS-5_symp</t>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14、感到自己的精力下降，活动减慢  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我厌恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我厌恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量丧失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量丧失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.你坐卧不安，难以保持平静吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度焦虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.I get a sort of frightened feeling like 'butterflies' in the stomach: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我厌恶/外貌焦虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院焦虑与抑郁量表HADS（</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇数为抑郁量表；偶数为焦虑量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以主动开始工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a,工作
 b,（失去）兴趣</t>
-  </si>
-  <si>
-    <t>迟缓</t>
-  </si>
-  <si>
-    <t>焦虑不安（激越）_agitation</t>
-  </si>
-  <si>
-    <t>焦虑（精神性）</t>
-  </si>
-  <si>
-    <t>焦虑（躯体性）</t>
-  </si>
-  <si>
-    <t>肠胃相关</t>
-  </si>
-  <si>
-    <t>全身症状</t>
-  </si>
-  <si>
-    <t>性症状（无兴趣）</t>
-  </si>
-  <si>
-    <t>疑病</t>
-  </si>
-  <si>
-    <t>体重变化</t>
-  </si>
-  <si>
-    <t>丧失自知力</t>
-  </si>
-  <si>
-    <t>昼夜情绪变化</t>
-  </si>
-  <si>
-    <t>人格解体或现实解体</t>
-  </si>
-  <si>
-    <t>偏执症状</t>
-  </si>
-  <si>
-    <t>强迫</t>
-  </si>
-  <si>
-    <t>能力减退感</t>
-  </si>
-  <si>
-    <t>绝望感</t>
-  </si>
-  <si>
-    <t>自卑感</t>
-  </si>
-  <si>
-    <t>DSI_symp</t>
-  </si>
-  <si>
-    <t>失眠
-早醒</t>
-  </si>
-  <si>
-    <t>食欲变化</t>
-  </si>
-  <si>
-    <t>无兴趣</t>
-  </si>
-  <si>
-    <t>精疲力竭</t>
-  </si>
-  <si>
-    <t>坐立不安</t>
-  </si>
-  <si>
-    <t>头脑清晰</t>
-  </si>
-  <si>
-    <t>空虚感</t>
-  </si>
-  <si>
-    <t>犹豫</t>
-  </si>
-  <si>
-    <t>愤怒</t>
-  </si>
-  <si>
-    <t>喜欢曾经喜欢的事</t>
-  </si>
-  <si>
-    <t>HADS_symp</t>
-  </si>
-  <si>
-    <t>紧张</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>开心（不开心）</t>
-  </si>
-  <si>
-    <t>坐立不安（心安理得）</t>
-  </si>
-  <si>
-    <t>失去兴趣（对自己外表）</t>
-  </si>
-  <si>
-    <t>感到被push</t>
-  </si>
-  <si>
-    <t>对未来充满（失去）希望</t>
-  </si>
-  <si>
-    <t>恐慌（panic）</t>
-  </si>
-  <si>
-    <t>可以享受文学作品</t>
-  </si>
-  <si>
-    <t>BSRS-5_symp</t>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">14、感到自己的精力下降，活动减慢  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我厌恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我厌恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量丧失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量丧失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.你坐卧不安，难以保持平静吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过度焦虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9.I get a sort of frightened feeling like 'butterflies' in the stomach: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我厌恶/外貌焦虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院焦虑与抑郁量表HADS（</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇数为抑郁量表；偶数为焦虑量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身各部位不适感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有猜疑
+牵连观念
+关系 被害妄想
+伴有幻觉的关系 被害妄想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，你感到情绪沮丧，郁闷吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沮丧，郁闷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +886,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,8 +959,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,12 +977,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1024,14 +1032,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1052,23 +1060,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - 着色 3" xfId="3" builtinId="39"/>
@@ -1354,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1376,7 +1388,7 @@
     <col min="16" max="16" width="28.85546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="35.140625" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.85546875" style="2" customWidth="1"/>
     <col min="22" max="22" width="39.42578125" customWidth="1"/>
@@ -1399,58 +1411,58 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" t="s">
         <v>9</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" t="s">
         <v>12</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AC1" s="3"/>
       <c r="AD1" t="s">
         <v>13</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AG1" s="3"/>
       <c r="AH1" t="s">
@@ -1471,7 +1483,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -1485,14 +1497,14 @@
       </c>
     </row>
     <row r="3" spans="2:35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1501,10 +1513,10 @@
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1513,70 +1525,70 @@
         <v>21</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>113</v>
+      <c r="O3" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="3">
         <v>0</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>128</v>
+      <c r="S3" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U3" s="3">
         <v>0</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>26</v>
-      </c>
       <c r="AE3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG3" s="3">
         <v>0</v>
@@ -1585,102 +1597,102 @@
         <v>16</v>
       </c>
       <c r="AI3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" ht="31.5">
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="2:35" ht="31.5">
-      <c r="B4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>174</v>
+        <v>108</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="I4" s="6">
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4" s="5">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="AG4" s="3">
         <v>0</v>
@@ -1691,192 +1703,192 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35">
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35">
-      <c r="B6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AA6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>47</v>
-      </c>
       <c r="AE6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG6" s="3">
         <v>0</v>
@@ -1886,85 +1898,85 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="W7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18" t="s">
+      <c r="AA7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>54</v>
-      </c>
       <c r="AE7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG7" s="3">
         <v>0</v>
@@ -1974,85 +1986,85 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
         <v>59</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="AA8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
         <v>60</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>61</v>
-      </c>
       <c r="AE8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AG8" s="3">
         <v>0</v>
@@ -2062,25 +2074,25 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M9" s="8">
         <v>0</v>
@@ -2088,37 +2100,37 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="U9" s="8">
-        <v>2</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="W9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="AA9" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AC9" s="5">
         <v>1</v>
@@ -2129,14 +2141,14 @@
     <row r="10" spans="2:35">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2146,37 +2158,37 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
         <v>68</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>69</v>
-      </c>
       <c r="AA10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AC10" s="3">
         <v>0</v>
@@ -2188,13 +2200,13 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
@@ -2207,37 +2219,37 @@
         <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U11" s="3">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Y11" s="3">
         <v>0</v>
       </c>
-      <c r="Z11" s="18" t="s">
-        <v>246</v>
+      <c r="Z11" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>202</v>
+        <v>157</v>
+      </c>
+      <c r="AB11" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="AC11" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -2246,13 +2258,13 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -2262,37 +2274,37 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="U12" s="8">
         <v>1</v>
       </c>
       <c r="V12" t="s">
+        <v>73</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
         <v>74</v>
       </c>
-      <c r="W12" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>231</v>
+      <c r="AA12" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="AC12" s="5">
         <v>0</v>
@@ -2304,13 +2316,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
@@ -2320,37 +2332,37 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U13" s="8">
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>220</v>
+        <v>149</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="Y13" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>152</v>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AC13" s="5">
         <v>0</v>
@@ -2362,13 +2374,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>184</v>
+        <v>78</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -2378,37 +2390,37 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>202</v>
+        <v>79</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="U14" s="5">
         <v>1</v>
       </c>
       <c r="V14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="s">
         <v>81</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>82</v>
-      </c>
       <c r="AA14" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
@@ -2420,13 +2432,13 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I15" s="8">
         <v>1</v>
@@ -2436,37 +2448,37 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
         <v>84</v>
       </c>
-      <c r="S15" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="U15" s="5">
-        <v>2</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="W15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="AA15" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -2484,37 +2496,37 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="W16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
         <v>88</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>235</v>
+      <c r="AA16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB16" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="AC16" s="5">
         <v>0</v>
@@ -2535,22 +2547,22 @@
         <v>6</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Y17" s="3">
         <v>0</v>
@@ -2573,22 +2585,22 @@
         <v>7</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
@@ -2611,22 +2623,22 @@
         <v>8</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="U19" s="3">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>92</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>224</v>
+        <v>91</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="Y19" s="3">
         <v>0</v>
@@ -2646,25 +2658,25 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
         <v>93</v>
       </c>
-      <c r="S20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="U20" s="8">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>94</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="X20" s="12" t="s">
-        <v>225</v>
+      <c r="W20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="Y20" s="5">
         <v>0</v>
@@ -2684,13 +2696,13 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" t="s">
-        <v>95</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>209</v>
+        <v>94</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="U21" s="5">
         <v>0</v>
@@ -2699,10 +2711,10 @@
         <v>10</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Y21" s="3">
         <v>0</v>
@@ -2712,7 +2724,7 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
     </row>
-    <row r="22" spans="4:33">
+    <row r="22" spans="4:33" ht="78.75">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="H22" s="3"/>
@@ -2722,25 +2734,25 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
         <v>96</v>
       </c>
-      <c r="S22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2</v>
-      </c>
-      <c r="V22" t="s">
-        <v>97</v>
-      </c>
       <c r="W22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -2760,13 +2772,13 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -2788,13 +2800,13 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -2816,13 +2828,13 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U25" s="3">
         <v>0</v>
@@ -2844,13 +2856,13 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
